--- a/data/raw_data/batteryChemistry_2005_2050.xlsx
+++ b/data/raw_data/batteryChemistry_2005_2050.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Box/BATMAN/Coding/V2G_in_EU/data/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Library/CloudStorage/Box-Box/BATMAN/Coding/V2G_in_EU/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58A8010-63A3-2B48-86F4-3F4D82C876F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99D760E-092C-0A48-AC65-75885AE578CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31020" yWindow="500" windowWidth="37660" windowHeight="28300" xr2:uid="{5FD1ED76-C9CE-CB48-B480-704B4194862F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="24">
   <si>
     <t xml:space="preserve">Year </t>
   </si>
@@ -113,6 +113,9 @@
   <si>
     <t>Sum</t>
   </si>
+  <si>
+    <t>All_LFP</t>
+  </si>
 </sst>
 </file>
 
@@ -121,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -155,6 +158,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -170,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -258,11 +270,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -352,6 +401,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,11 +722,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4594271-F5ED-F445-9A35-52146C7B081E}">
-  <dimension ref="A1:O231"/>
+  <dimension ref="A1:O277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
+      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N239" sqref="N239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12058,6 +12114,1892 @@
       <c r="O231" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A232" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B232" s="32">
+        <v>2005</v>
+      </c>
+      <c r="C232" s="33">
+        <v>0.2399</v>
+      </c>
+      <c r="D232" s="33">
+        <v>0.19189999999999999</v>
+      </c>
+      <c r="E232" s="33">
+        <v>0.56820000000000004</v>
+      </c>
+      <c r="F232" s="33">
+        <v>0</v>
+      </c>
+      <c r="G232" s="33">
+        <v>0</v>
+      </c>
+      <c r="H232" s="33">
+        <v>0</v>
+      </c>
+      <c r="I232" s="33">
+        <v>0</v>
+      </c>
+      <c r="J232" s="33">
+        <v>0</v>
+      </c>
+      <c r="K232" s="33">
+        <v>0</v>
+      </c>
+      <c r="L232" s="33">
+        <v>0</v>
+      </c>
+      <c r="M232" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A233" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B233" s="35">
+        <v>2006</v>
+      </c>
+      <c r="C233" s="33">
+        <v>0.2399</v>
+      </c>
+      <c r="D233" s="33">
+        <v>0.19189999999999999</v>
+      </c>
+      <c r="E233" s="33">
+        <v>0.56820000000000004</v>
+      </c>
+      <c r="F233" s="33">
+        <v>0</v>
+      </c>
+      <c r="G233" s="33">
+        <v>0</v>
+      </c>
+      <c r="H233" s="33">
+        <v>0</v>
+      </c>
+      <c r="I233" s="33">
+        <v>0</v>
+      </c>
+      <c r="J233" s="33">
+        <v>0</v>
+      </c>
+      <c r="K233" s="33">
+        <v>0</v>
+      </c>
+      <c r="L233" s="33">
+        <v>0</v>
+      </c>
+      <c r="M233" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A234" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B234" s="35">
+        <v>2007</v>
+      </c>
+      <c r="C234" s="33">
+        <v>0.2399</v>
+      </c>
+      <c r="D234" s="33">
+        <v>0.19189999999999999</v>
+      </c>
+      <c r="E234" s="33">
+        <v>0.56820000000000004</v>
+      </c>
+      <c r="F234" s="33">
+        <v>0</v>
+      </c>
+      <c r="G234" s="33">
+        <v>0</v>
+      </c>
+      <c r="H234" s="33">
+        <v>0</v>
+      </c>
+      <c r="I234" s="33">
+        <v>0</v>
+      </c>
+      <c r="J234" s="33">
+        <v>0</v>
+      </c>
+      <c r="K234" s="33">
+        <v>0</v>
+      </c>
+      <c r="L234" s="33">
+        <v>0</v>
+      </c>
+      <c r="M234" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A235" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B235" s="35">
+        <v>2008</v>
+      </c>
+      <c r="C235" s="33">
+        <v>0.2399</v>
+      </c>
+      <c r="D235" s="33">
+        <v>0.19189999999999999</v>
+      </c>
+      <c r="E235" s="33">
+        <v>0.56820000000000004</v>
+      </c>
+      <c r="F235" s="33">
+        <v>0</v>
+      </c>
+      <c r="G235" s="33">
+        <v>0</v>
+      </c>
+      <c r="H235" s="33">
+        <v>0</v>
+      </c>
+      <c r="I235" s="33">
+        <v>0</v>
+      </c>
+      <c r="J235" s="33">
+        <v>0</v>
+      </c>
+      <c r="K235" s="33">
+        <v>0</v>
+      </c>
+      <c r="L235" s="33">
+        <v>0</v>
+      </c>
+      <c r="M235" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A236" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B236" s="35">
+        <v>2009</v>
+      </c>
+      <c r="C236" s="33">
+        <v>0.2399</v>
+      </c>
+      <c r="D236" s="33">
+        <v>0.19189999999999999</v>
+      </c>
+      <c r="E236" s="33">
+        <v>0.56820000000000004</v>
+      </c>
+      <c r="F236" s="33">
+        <v>0</v>
+      </c>
+      <c r="G236" s="33">
+        <v>0</v>
+      </c>
+      <c r="H236" s="33">
+        <v>0</v>
+      </c>
+      <c r="I236" s="33">
+        <v>0</v>
+      </c>
+      <c r="J236" s="33">
+        <v>0</v>
+      </c>
+      <c r="K236" s="33">
+        <v>0</v>
+      </c>
+      <c r="L236" s="33">
+        <v>0</v>
+      </c>
+      <c r="M236" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A237" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B237" s="35">
+        <v>2010</v>
+      </c>
+      <c r="C237" s="33">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="D237" s="33">
+        <v>0.113</v>
+      </c>
+      <c r="E237" s="33">
+        <v>0.33460000000000001</v>
+      </c>
+      <c r="F237" s="33">
+        <v>0.41120000000000001</v>
+      </c>
+      <c r="G237" s="33">
+        <v>0</v>
+      </c>
+      <c r="H237" s="33">
+        <v>0</v>
+      </c>
+      <c r="I237" s="33">
+        <v>0</v>
+      </c>
+      <c r="J237" s="33">
+        <v>0</v>
+      </c>
+      <c r="K237" s="33">
+        <v>0</v>
+      </c>
+      <c r="L237" s="33">
+        <v>0</v>
+      </c>
+      <c r="M237" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A238" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B238" s="35">
+        <v>2011</v>
+      </c>
+      <c r="C238" s="33">
+        <v>0.18440000000000001</v>
+      </c>
+      <c r="D238" s="33">
+        <v>0.16139999999999999</v>
+      </c>
+      <c r="E238" s="33">
+        <v>0.30270000000000002</v>
+      </c>
+      <c r="F238" s="33">
+        <v>0.35149999999999998</v>
+      </c>
+      <c r="G238" s="33">
+        <v>0</v>
+      </c>
+      <c r="H238" s="33">
+        <v>0</v>
+      </c>
+      <c r="I238" s="33">
+        <v>0</v>
+      </c>
+      <c r="J238" s="33">
+        <v>0</v>
+      </c>
+      <c r="K238" s="33">
+        <v>0</v>
+      </c>
+      <c r="L238" s="33">
+        <v>0</v>
+      </c>
+      <c r="M238" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A239" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B239" s="35">
+        <v>2012</v>
+      </c>
+      <c r="C239" s="33">
+        <v>0.2397</v>
+      </c>
+      <c r="D239" s="33">
+        <v>0.21970000000000001</v>
+      </c>
+      <c r="E239" s="33">
+        <v>0.25779999999999997</v>
+      </c>
+      <c r="F239" s="33">
+        <v>0.2828</v>
+      </c>
+      <c r="G239" s="33">
+        <v>0</v>
+      </c>
+      <c r="H239" s="33">
+        <v>0</v>
+      </c>
+      <c r="I239" s="33">
+        <v>0</v>
+      </c>
+      <c r="J239" s="33">
+        <v>0</v>
+      </c>
+      <c r="K239" s="33">
+        <v>0</v>
+      </c>
+      <c r="L239" s="33">
+        <v>0</v>
+      </c>
+      <c r="M239" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A240" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B240" s="35">
+        <v>2013</v>
+      </c>
+      <c r="C240" s="33">
+        <v>0.2949</v>
+      </c>
+      <c r="D240" s="33">
+        <v>0.22939999999999999</v>
+      </c>
+      <c r="E240" s="33">
+        <v>0.2336</v>
+      </c>
+      <c r="F240" s="33">
+        <v>0.2422</v>
+      </c>
+      <c r="G240" s="33">
+        <v>0</v>
+      </c>
+      <c r="H240" s="33">
+        <v>0</v>
+      </c>
+      <c r="I240" s="33">
+        <v>0</v>
+      </c>
+      <c r="J240" s="33">
+        <v>0</v>
+      </c>
+      <c r="K240" s="33">
+        <v>0</v>
+      </c>
+      <c r="L240" s="33">
+        <v>0</v>
+      </c>
+      <c r="M240" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A241" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B241" s="35">
+        <v>2014</v>
+      </c>
+      <c r="C241" s="33">
+        <v>0.35920000000000002</v>
+      </c>
+      <c r="D241" s="33">
+        <v>0.22020000000000001</v>
+      </c>
+      <c r="E241" s="33">
+        <v>0.21240000000000001</v>
+      </c>
+      <c r="F241" s="33">
+        <v>0.2082</v>
+      </c>
+      <c r="G241" s="33">
+        <v>0</v>
+      </c>
+      <c r="H241" s="33">
+        <v>0</v>
+      </c>
+      <c r="I241" s="33">
+        <v>0</v>
+      </c>
+      <c r="J241" s="33">
+        <v>0</v>
+      </c>
+      <c r="K241" s="33">
+        <v>0</v>
+      </c>
+      <c r="L241" s="33">
+        <v>0</v>
+      </c>
+      <c r="M241" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A242" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B242" s="35">
+        <v>2015</v>
+      </c>
+      <c r="C242" s="33">
+        <v>0.27889999999999998</v>
+      </c>
+      <c r="D242" s="33">
+        <v>0.16569999999999999</v>
+      </c>
+      <c r="E242" s="33">
+        <v>0.2883</v>
+      </c>
+      <c r="F242" s="33">
+        <v>0.215</v>
+      </c>
+      <c r="G242" s="33">
+        <v>2.12E-2</v>
+      </c>
+      <c r="H242" s="33">
+        <v>2.12E-2</v>
+      </c>
+      <c r="I242" s="33">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="J242" s="33">
+        <v>0</v>
+      </c>
+      <c r="K242" s="33">
+        <v>0</v>
+      </c>
+      <c r="L242" s="33">
+        <v>0</v>
+      </c>
+      <c r="M242" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A243" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B243" s="35">
+        <v>2016</v>
+      </c>
+      <c r="C243" s="33">
+        <v>0.313</v>
+      </c>
+      <c r="D243" s="33">
+        <v>0.1694</v>
+      </c>
+      <c r="E243" s="33">
+        <v>0.22720000000000001</v>
+      </c>
+      <c r="F243" s="33">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="G243" s="33">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="H243" s="33">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="I243" s="33">
+        <v>1.06E-2</v>
+      </c>
+      <c r="J243" s="33">
+        <v>0</v>
+      </c>
+      <c r="K243" s="33">
+        <v>0</v>
+      </c>
+      <c r="L243" s="33">
+        <v>0</v>
+      </c>
+      <c r="M243" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A244" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B244" s="35">
+        <v>2017</v>
+      </c>
+      <c r="C244" s="33">
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="D244" s="33">
+        <v>0.15179999999999999</v>
+      </c>
+      <c r="E244" s="33">
+        <v>0.20330000000000001</v>
+      </c>
+      <c r="F244" s="33">
+        <v>0.247</v>
+      </c>
+      <c r="G244" s="33">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="H244" s="33">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="I244" s="33">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="J244" s="33">
+        <v>0</v>
+      </c>
+      <c r="K244" s="33">
+        <v>0</v>
+      </c>
+      <c r="L244" s="33">
+        <v>0</v>
+      </c>
+      <c r="M244" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A245" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B245" s="35">
+        <v>2018</v>
+      </c>
+      <c r="C245" s="33">
+        <v>0.22989999999999999</v>
+      </c>
+      <c r="D245" s="33">
+        <v>0.126</v>
+      </c>
+      <c r="E245" s="33">
+        <v>0.1794</v>
+      </c>
+      <c r="F245" s="33">
+        <v>0.29659999999999997</v>
+      </c>
+      <c r="G245" s="33">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="H245" s="33">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="I245" s="33">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J245" s="33">
+        <v>0</v>
+      </c>
+      <c r="K245" s="33">
+        <v>0</v>
+      </c>
+      <c r="L245" s="33">
+        <v>0</v>
+      </c>
+      <c r="M245" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A246" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B246" s="35">
+        <v>2019</v>
+      </c>
+      <c r="C246" s="33">
+        <v>0.29409999999999997</v>
+      </c>
+      <c r="D246" s="33">
+        <v>0.11550000000000001</v>
+      </c>
+      <c r="E246" s="33">
+        <v>0.16450000000000001</v>
+      </c>
+      <c r="F246" s="33">
+        <v>0.27179999999999999</v>
+      </c>
+      <c r="G246" s="33">
+        <v>6.93E-2</v>
+      </c>
+      <c r="H246" s="33">
+        <v>6.93E-2</v>
+      </c>
+      <c r="I246" s="33">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="J246" s="33">
+        <v>0</v>
+      </c>
+      <c r="K246" s="33">
+        <v>0</v>
+      </c>
+      <c r="L246" s="33">
+        <v>0</v>
+      </c>
+      <c r="M246" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A247" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B247" s="35">
+        <v>2020</v>
+      </c>
+      <c r="C247" s="33">
+        <v>0.35830000000000001</v>
+      </c>
+      <c r="D247" s="33">
+        <v>0.105</v>
+      </c>
+      <c r="E247" s="33">
+        <v>0.14949999999999999</v>
+      </c>
+      <c r="F247" s="33">
+        <v>0.24709999999999999</v>
+      </c>
+      <c r="G247" s="33">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H247" s="33">
+        <v>6.3E-2</v>
+      </c>
+      <c r="I247" s="33">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="J247" s="33">
+        <v>0</v>
+      </c>
+      <c r="K247" s="33">
+        <v>0</v>
+      </c>
+      <c r="L247" s="33">
+        <v>0</v>
+      </c>
+      <c r="M247" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A248" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B248" s="35">
+        <v>2021</v>
+      </c>
+      <c r="C248" s="33">
+        <v>0.4224</v>
+      </c>
+      <c r="D248" s="33">
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="E248" s="33">
+        <v>0.1346</v>
+      </c>
+      <c r="F248" s="33">
+        <v>0.22239999999999999</v>
+      </c>
+      <c r="G248" s="33">
+        <v>5.67E-2</v>
+      </c>
+      <c r="H248" s="33">
+        <v>5.67E-2</v>
+      </c>
+      <c r="I248" s="33">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="J248" s="33">
+        <v>0</v>
+      </c>
+      <c r="K248" s="33">
+        <v>0</v>
+      </c>
+      <c r="L248" s="33">
+        <v>0</v>
+      </c>
+      <c r="M248" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A249" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B249" s="35">
+        <v>2022</v>
+      </c>
+      <c r="C249" s="33">
+        <v>0.48659999999999998</v>
+      </c>
+      <c r="D249" s="33">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E249" s="33">
+        <v>0.1196</v>
+      </c>
+      <c r="F249" s="33">
+        <v>0.19769999999999999</v>
+      </c>
+      <c r="G249" s="33">
+        <v>5.04E-2</v>
+      </c>
+      <c r="H249" s="33">
+        <v>5.04E-2</v>
+      </c>
+      <c r="I249" s="33">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="J249" s="33">
+        <v>0</v>
+      </c>
+      <c r="K249" s="33">
+        <v>0</v>
+      </c>
+      <c r="L249" s="33">
+        <v>0</v>
+      </c>
+      <c r="M249" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A250" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B250" s="35">
+        <v>2023</v>
+      </c>
+      <c r="C250" s="33">
+        <v>0.55079999999999996</v>
+      </c>
+      <c r="D250" s="33">
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="E250" s="33">
+        <v>0.1047</v>
+      </c>
+      <c r="F250" s="33">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="G250" s="33">
+        <v>4.41E-2</v>
+      </c>
+      <c r="H250" s="33">
+        <v>4.41E-2</v>
+      </c>
+      <c r="I250" s="33">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="J250" s="33">
+        <v>0</v>
+      </c>
+      <c r="K250" s="33">
+        <v>0</v>
+      </c>
+      <c r="L250" s="33">
+        <v>0</v>
+      </c>
+      <c r="M250" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A251" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B251" s="35">
+        <v>2024</v>
+      </c>
+      <c r="C251" s="33">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="D251" s="33">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E251" s="33">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="F251" s="33">
+        <v>0.14829999999999999</v>
+      </c>
+      <c r="G251" s="33">
+        <v>3.78E-2</v>
+      </c>
+      <c r="H251" s="33">
+        <v>3.78E-2</v>
+      </c>
+      <c r="I251" s="33">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="J251" s="33">
+        <v>0</v>
+      </c>
+      <c r="K251" s="33">
+        <v>0</v>
+      </c>
+      <c r="L251" s="33">
+        <v>0</v>
+      </c>
+      <c r="M251" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A252" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B252" s="35">
+        <v>2025</v>
+      </c>
+      <c r="C252" s="33">
+        <v>0.67910000000000004</v>
+      </c>
+      <c r="D252" s="33">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="E252" s="33">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="F252" s="33">
+        <v>0.1236</v>
+      </c>
+      <c r="G252" s="33">
+        <v>3.15E-2</v>
+      </c>
+      <c r="H252" s="33">
+        <v>3.15E-2</v>
+      </c>
+      <c r="I252" s="33">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="J252" s="33">
+        <v>0</v>
+      </c>
+      <c r="K252" s="33">
+        <v>0</v>
+      </c>
+      <c r="L252" s="33">
+        <v>0</v>
+      </c>
+      <c r="M252" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A253" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B253" s="35">
+        <v>2026</v>
+      </c>
+      <c r="C253" s="33">
+        <v>0.74329999999999996</v>
+      </c>
+      <c r="D253" s="33">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E253" s="33">
+        <v>5.9799999999999999E-2</v>
+      </c>
+      <c r="F253" s="33">
+        <v>9.8900000000000002E-2</v>
+      </c>
+      <c r="G253" s="33">
+        <v>2.52E-2</v>
+      </c>
+      <c r="H253" s="33">
+        <v>2.52E-2</v>
+      </c>
+      <c r="I253" s="33">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="J253" s="33">
+        <v>0</v>
+      </c>
+      <c r="K253" s="33">
+        <v>0</v>
+      </c>
+      <c r="L253" s="33">
+        <v>0</v>
+      </c>
+      <c r="M253" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A254" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B254" s="35">
+        <v>2027</v>
+      </c>
+      <c r="C254" s="33">
+        <v>0.8075</v>
+      </c>
+      <c r="D254" s="33">
+        <v>3.15E-2</v>
+      </c>
+      <c r="E254" s="33">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="F254" s="33">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="G254" s="33">
+        <v>1.89E-2</v>
+      </c>
+      <c r="H254" s="33">
+        <v>1.89E-2</v>
+      </c>
+      <c r="I254" s="33">
+        <v>4.3E-3</v>
+      </c>
+      <c r="J254" s="33">
+        <v>0</v>
+      </c>
+      <c r="K254" s="33">
+        <v>0</v>
+      </c>
+      <c r="L254" s="33">
+        <v>0</v>
+      </c>
+      <c r="M254" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A255" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B255" s="35">
+        <v>2028</v>
+      </c>
+      <c r="C255" s="33">
+        <v>0.87170000000000003</v>
+      </c>
+      <c r="D255" s="33">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E255" s="33">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="F255" s="33">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="G255" s="33">
+        <v>1.26E-2</v>
+      </c>
+      <c r="H255" s="33">
+        <v>1.26E-2</v>
+      </c>
+      <c r="I255" s="33">
+        <v>2.8E-3</v>
+      </c>
+      <c r="J255" s="33">
+        <v>0</v>
+      </c>
+      <c r="K255" s="33">
+        <v>0</v>
+      </c>
+      <c r="L255" s="33">
+        <v>0</v>
+      </c>
+      <c r="M255" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A256" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B256" s="35">
+        <v>2029</v>
+      </c>
+      <c r="C256" s="33">
+        <v>0.93579999999999997</v>
+      </c>
+      <c r="D256" s="33">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="E256" s="33">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F256" s="33">
+        <v>2.47E-2</v>
+      </c>
+      <c r="G256" s="33">
+        <v>6.3E-3</v>
+      </c>
+      <c r="H256" s="33">
+        <v>6.3E-3</v>
+      </c>
+      <c r="I256" s="33">
+        <v>1.4E-3</v>
+      </c>
+      <c r="J256" s="33">
+        <v>0</v>
+      </c>
+      <c r="K256" s="33">
+        <v>0</v>
+      </c>
+      <c r="L256" s="33">
+        <v>0</v>
+      </c>
+      <c r="M256" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A257" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B257" s="35">
+        <v>2030</v>
+      </c>
+      <c r="C257" s="33">
+        <v>1</v>
+      </c>
+      <c r="D257" s="33">
+        <v>0</v>
+      </c>
+      <c r="E257" s="33">
+        <v>0</v>
+      </c>
+      <c r="F257" s="33">
+        <v>0</v>
+      </c>
+      <c r="G257" s="33">
+        <v>0</v>
+      </c>
+      <c r="H257" s="33">
+        <v>0</v>
+      </c>
+      <c r="I257" s="33">
+        <v>0</v>
+      </c>
+      <c r="J257" s="33">
+        <v>0</v>
+      </c>
+      <c r="K257" s="33">
+        <v>0</v>
+      </c>
+      <c r="L257" s="33">
+        <v>0</v>
+      </c>
+      <c r="M257" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A258" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B258" s="35">
+        <v>2031</v>
+      </c>
+      <c r="C258" s="36">
+        <v>1</v>
+      </c>
+      <c r="D258" s="33">
+        <v>0</v>
+      </c>
+      <c r="E258" s="33">
+        <v>0</v>
+      </c>
+      <c r="F258" s="33">
+        <v>0</v>
+      </c>
+      <c r="G258" s="33">
+        <v>0</v>
+      </c>
+      <c r="H258" s="33">
+        <v>0</v>
+      </c>
+      <c r="I258" s="33">
+        <v>0</v>
+      </c>
+      <c r="J258" s="33">
+        <v>0</v>
+      </c>
+      <c r="K258" s="33">
+        <v>0</v>
+      </c>
+      <c r="L258" s="33">
+        <v>0</v>
+      </c>
+      <c r="M258" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A259" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B259" s="35">
+        <v>2032</v>
+      </c>
+      <c r="C259" s="36">
+        <v>1</v>
+      </c>
+      <c r="D259" s="33">
+        <v>0</v>
+      </c>
+      <c r="E259" s="33">
+        <v>0</v>
+      </c>
+      <c r="F259" s="33">
+        <v>0</v>
+      </c>
+      <c r="G259" s="33">
+        <v>0</v>
+      </c>
+      <c r="H259" s="33">
+        <v>0</v>
+      </c>
+      <c r="I259" s="33">
+        <v>0</v>
+      </c>
+      <c r="J259" s="33">
+        <v>0</v>
+      </c>
+      <c r="K259" s="33">
+        <v>0</v>
+      </c>
+      <c r="L259" s="33">
+        <v>0</v>
+      </c>
+      <c r="M259" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A260" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B260" s="35">
+        <v>2033</v>
+      </c>
+      <c r="C260" s="36">
+        <v>1</v>
+      </c>
+      <c r="D260" s="33">
+        <v>0</v>
+      </c>
+      <c r="E260" s="33">
+        <v>0</v>
+      </c>
+      <c r="F260" s="33">
+        <v>0</v>
+      </c>
+      <c r="G260" s="33">
+        <v>0</v>
+      </c>
+      <c r="H260" s="33">
+        <v>0</v>
+      </c>
+      <c r="I260" s="33">
+        <v>0</v>
+      </c>
+      <c r="J260" s="33">
+        <v>0</v>
+      </c>
+      <c r="K260" s="33">
+        <v>0</v>
+      </c>
+      <c r="L260" s="33">
+        <v>0</v>
+      </c>
+      <c r="M260" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A261" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B261" s="35">
+        <v>2034</v>
+      </c>
+      <c r="C261" s="36">
+        <v>1</v>
+      </c>
+      <c r="D261" s="33">
+        <v>0</v>
+      </c>
+      <c r="E261" s="33">
+        <v>0</v>
+      </c>
+      <c r="F261" s="33">
+        <v>0</v>
+      </c>
+      <c r="G261" s="33">
+        <v>0</v>
+      </c>
+      <c r="H261" s="33">
+        <v>0</v>
+      </c>
+      <c r="I261" s="33">
+        <v>0</v>
+      </c>
+      <c r="J261" s="33">
+        <v>0</v>
+      </c>
+      <c r="K261" s="33">
+        <v>0</v>
+      </c>
+      <c r="L261" s="33">
+        <v>0</v>
+      </c>
+      <c r="M261" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A262" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B262" s="35">
+        <v>2035</v>
+      </c>
+      <c r="C262" s="36">
+        <v>1</v>
+      </c>
+      <c r="D262" s="33">
+        <v>0</v>
+      </c>
+      <c r="E262" s="33">
+        <v>0</v>
+      </c>
+      <c r="F262" s="33">
+        <v>0</v>
+      </c>
+      <c r="G262" s="33">
+        <v>0</v>
+      </c>
+      <c r="H262" s="33">
+        <v>0</v>
+      </c>
+      <c r="I262" s="33">
+        <v>0</v>
+      </c>
+      <c r="J262" s="33">
+        <v>0</v>
+      </c>
+      <c r="K262" s="33">
+        <v>0</v>
+      </c>
+      <c r="L262" s="33">
+        <v>0</v>
+      </c>
+      <c r="M262" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A263" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B263" s="35">
+        <v>2036</v>
+      </c>
+      <c r="C263" s="36">
+        <v>1</v>
+      </c>
+      <c r="D263" s="33">
+        <v>0</v>
+      </c>
+      <c r="E263" s="33">
+        <v>0</v>
+      </c>
+      <c r="F263" s="33">
+        <v>0</v>
+      </c>
+      <c r="G263" s="33">
+        <v>0</v>
+      </c>
+      <c r="H263" s="33">
+        <v>0</v>
+      </c>
+      <c r="I263" s="33">
+        <v>0</v>
+      </c>
+      <c r="J263" s="33">
+        <v>0</v>
+      </c>
+      <c r="K263" s="33">
+        <v>0</v>
+      </c>
+      <c r="L263" s="33">
+        <v>0</v>
+      </c>
+      <c r="M263" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A264" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B264" s="35">
+        <v>2037</v>
+      </c>
+      <c r="C264" s="36">
+        <v>1</v>
+      </c>
+      <c r="D264" s="33">
+        <v>0</v>
+      </c>
+      <c r="E264" s="33">
+        <v>0</v>
+      </c>
+      <c r="F264" s="33">
+        <v>0</v>
+      </c>
+      <c r="G264" s="33">
+        <v>0</v>
+      </c>
+      <c r="H264" s="33">
+        <v>0</v>
+      </c>
+      <c r="I264" s="33">
+        <v>0</v>
+      </c>
+      <c r="J264" s="33">
+        <v>0</v>
+      </c>
+      <c r="K264" s="33">
+        <v>0</v>
+      </c>
+      <c r="L264" s="33">
+        <v>0</v>
+      </c>
+      <c r="M264" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A265" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B265" s="35">
+        <v>2038</v>
+      </c>
+      <c r="C265" s="36">
+        <v>1</v>
+      </c>
+      <c r="D265" s="33">
+        <v>0</v>
+      </c>
+      <c r="E265" s="33">
+        <v>0</v>
+      </c>
+      <c r="F265" s="33">
+        <v>0</v>
+      </c>
+      <c r="G265" s="33">
+        <v>0</v>
+      </c>
+      <c r="H265" s="33">
+        <v>0</v>
+      </c>
+      <c r="I265" s="33">
+        <v>0</v>
+      </c>
+      <c r="J265" s="33">
+        <v>0</v>
+      </c>
+      <c r="K265" s="33">
+        <v>0</v>
+      </c>
+      <c r="L265" s="33">
+        <v>0</v>
+      </c>
+      <c r="M265" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A266" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B266" s="35">
+        <v>2039</v>
+      </c>
+      <c r="C266" s="36">
+        <v>1</v>
+      </c>
+      <c r="D266" s="33">
+        <v>0</v>
+      </c>
+      <c r="E266" s="33">
+        <v>0</v>
+      </c>
+      <c r="F266" s="33">
+        <v>0</v>
+      </c>
+      <c r="G266" s="33">
+        <v>0</v>
+      </c>
+      <c r="H266" s="33">
+        <v>0</v>
+      </c>
+      <c r="I266" s="33">
+        <v>0</v>
+      </c>
+      <c r="J266" s="33">
+        <v>0</v>
+      </c>
+      <c r="K266" s="33">
+        <v>0</v>
+      </c>
+      <c r="L266" s="33">
+        <v>0</v>
+      </c>
+      <c r="M266" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A267" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B267" s="35">
+        <v>2040</v>
+      </c>
+      <c r="C267" s="36">
+        <v>1</v>
+      </c>
+      <c r="D267" s="33">
+        <v>0</v>
+      </c>
+      <c r="E267" s="33">
+        <v>0</v>
+      </c>
+      <c r="F267" s="33">
+        <v>0</v>
+      </c>
+      <c r="G267" s="33">
+        <v>0</v>
+      </c>
+      <c r="H267" s="33">
+        <v>0</v>
+      </c>
+      <c r="I267" s="33">
+        <v>0</v>
+      </c>
+      <c r="J267" s="33">
+        <v>0</v>
+      </c>
+      <c r="K267" s="33">
+        <v>0</v>
+      </c>
+      <c r="L267" s="33">
+        <v>0</v>
+      </c>
+      <c r="M267" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A268" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B268" s="35">
+        <v>2041</v>
+      </c>
+      <c r="C268" s="36">
+        <v>1</v>
+      </c>
+      <c r="D268" s="33">
+        <v>0</v>
+      </c>
+      <c r="E268" s="33">
+        <v>0</v>
+      </c>
+      <c r="F268" s="33">
+        <v>0</v>
+      </c>
+      <c r="G268" s="33">
+        <v>0</v>
+      </c>
+      <c r="H268" s="33">
+        <v>0</v>
+      </c>
+      <c r="I268" s="33">
+        <v>0</v>
+      </c>
+      <c r="J268" s="33">
+        <v>0</v>
+      </c>
+      <c r="K268" s="33">
+        <v>0</v>
+      </c>
+      <c r="L268" s="33">
+        <v>0</v>
+      </c>
+      <c r="M268" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A269" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B269" s="35">
+        <v>2042</v>
+      </c>
+      <c r="C269" s="36">
+        <v>1</v>
+      </c>
+      <c r="D269" s="33">
+        <v>0</v>
+      </c>
+      <c r="E269" s="33">
+        <v>0</v>
+      </c>
+      <c r="F269" s="33">
+        <v>0</v>
+      </c>
+      <c r="G269" s="33">
+        <v>0</v>
+      </c>
+      <c r="H269" s="33">
+        <v>0</v>
+      </c>
+      <c r="I269" s="33">
+        <v>0</v>
+      </c>
+      <c r="J269" s="33">
+        <v>0</v>
+      </c>
+      <c r="K269" s="33">
+        <v>0</v>
+      </c>
+      <c r="L269" s="33">
+        <v>0</v>
+      </c>
+      <c r="M269" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A270" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B270" s="35">
+        <v>2043</v>
+      </c>
+      <c r="C270" s="36">
+        <v>1</v>
+      </c>
+      <c r="D270" s="33">
+        <v>0</v>
+      </c>
+      <c r="E270" s="33">
+        <v>0</v>
+      </c>
+      <c r="F270" s="33">
+        <v>0</v>
+      </c>
+      <c r="G270" s="33">
+        <v>0</v>
+      </c>
+      <c r="H270" s="33">
+        <v>0</v>
+      </c>
+      <c r="I270" s="33">
+        <v>0</v>
+      </c>
+      <c r="J270" s="33">
+        <v>0</v>
+      </c>
+      <c r="K270" s="33">
+        <v>0</v>
+      </c>
+      <c r="L270" s="33">
+        <v>0</v>
+      </c>
+      <c r="M270" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A271" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B271" s="35">
+        <v>2044</v>
+      </c>
+      <c r="C271" s="36">
+        <v>1</v>
+      </c>
+      <c r="D271" s="33">
+        <v>0</v>
+      </c>
+      <c r="E271" s="33">
+        <v>0</v>
+      </c>
+      <c r="F271" s="33">
+        <v>0</v>
+      </c>
+      <c r="G271" s="33">
+        <v>0</v>
+      </c>
+      <c r="H271" s="33">
+        <v>0</v>
+      </c>
+      <c r="I271" s="33">
+        <v>0</v>
+      </c>
+      <c r="J271" s="33">
+        <v>0</v>
+      </c>
+      <c r="K271" s="33">
+        <v>0</v>
+      </c>
+      <c r="L271" s="33">
+        <v>0</v>
+      </c>
+      <c r="M271" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A272" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B272" s="35">
+        <v>2045</v>
+      </c>
+      <c r="C272" s="36">
+        <v>1</v>
+      </c>
+      <c r="D272" s="33">
+        <v>0</v>
+      </c>
+      <c r="E272" s="33">
+        <v>0</v>
+      </c>
+      <c r="F272" s="33">
+        <v>0</v>
+      </c>
+      <c r="G272" s="33">
+        <v>0</v>
+      </c>
+      <c r="H272" s="33">
+        <v>0</v>
+      </c>
+      <c r="I272" s="33">
+        <v>0</v>
+      </c>
+      <c r="J272" s="33">
+        <v>0</v>
+      </c>
+      <c r="K272" s="33">
+        <v>0</v>
+      </c>
+      <c r="L272" s="33">
+        <v>0</v>
+      </c>
+      <c r="M272" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A273" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B273" s="35">
+        <v>2046</v>
+      </c>
+      <c r="C273" s="36">
+        <v>1</v>
+      </c>
+      <c r="D273" s="33">
+        <v>0</v>
+      </c>
+      <c r="E273" s="33">
+        <v>0</v>
+      </c>
+      <c r="F273" s="33">
+        <v>0</v>
+      </c>
+      <c r="G273" s="33">
+        <v>0</v>
+      </c>
+      <c r="H273" s="33">
+        <v>0</v>
+      </c>
+      <c r="I273" s="33">
+        <v>0</v>
+      </c>
+      <c r="J273" s="33">
+        <v>0</v>
+      </c>
+      <c r="K273" s="33">
+        <v>0</v>
+      </c>
+      <c r="L273" s="33">
+        <v>0</v>
+      </c>
+      <c r="M273" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A274" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B274" s="35">
+        <v>2047</v>
+      </c>
+      <c r="C274" s="36">
+        <v>1</v>
+      </c>
+      <c r="D274" s="33">
+        <v>0</v>
+      </c>
+      <c r="E274" s="33">
+        <v>0</v>
+      </c>
+      <c r="F274" s="33">
+        <v>0</v>
+      </c>
+      <c r="G274" s="33">
+        <v>0</v>
+      </c>
+      <c r="H274" s="33">
+        <v>0</v>
+      </c>
+      <c r="I274" s="33">
+        <v>0</v>
+      </c>
+      <c r="J274" s="33">
+        <v>0</v>
+      </c>
+      <c r="K274" s="33">
+        <v>0</v>
+      </c>
+      <c r="L274" s="33">
+        <v>0</v>
+      </c>
+      <c r="M274" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A275" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B275" s="35">
+        <v>2048</v>
+      </c>
+      <c r="C275" s="36">
+        <v>1</v>
+      </c>
+      <c r="D275" s="33">
+        <v>0</v>
+      </c>
+      <c r="E275" s="33">
+        <v>0</v>
+      </c>
+      <c r="F275" s="33">
+        <v>0</v>
+      </c>
+      <c r="G275" s="33">
+        <v>0</v>
+      </c>
+      <c r="H275" s="33">
+        <v>0</v>
+      </c>
+      <c r="I275" s="33">
+        <v>0</v>
+      </c>
+      <c r="J275" s="33">
+        <v>0</v>
+      </c>
+      <c r="K275" s="33">
+        <v>0</v>
+      </c>
+      <c r="L275" s="33">
+        <v>0</v>
+      </c>
+      <c r="M275" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A276" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B276" s="35">
+        <v>2049</v>
+      </c>
+      <c r="C276" s="36">
+        <v>1</v>
+      </c>
+      <c r="D276" s="33">
+        <v>0</v>
+      </c>
+      <c r="E276" s="33">
+        <v>0</v>
+      </c>
+      <c r="F276" s="33">
+        <v>0</v>
+      </c>
+      <c r="G276" s="33">
+        <v>0</v>
+      </c>
+      <c r="H276" s="33">
+        <v>0</v>
+      </c>
+      <c r="I276" s="33">
+        <v>0</v>
+      </c>
+      <c r="J276" s="33">
+        <v>0</v>
+      </c>
+      <c r="K276" s="33">
+        <v>0</v>
+      </c>
+      <c r="L276" s="33">
+        <v>0</v>
+      </c>
+      <c r="M276" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B277" s="37">
+        <v>2050</v>
+      </c>
+      <c r="C277" s="36">
+        <v>1</v>
+      </c>
+      <c r="D277" s="33">
+        <v>0</v>
+      </c>
+      <c r="E277" s="33">
+        <v>0</v>
+      </c>
+      <c r="F277" s="33">
+        <v>0</v>
+      </c>
+      <c r="G277" s="33">
+        <v>0</v>
+      </c>
+      <c r="H277" s="33">
+        <v>0</v>
+      </c>
+      <c r="I277" s="33">
+        <v>0</v>
+      </c>
+      <c r="J277" s="33">
+        <v>0</v>
+      </c>
+      <c r="K277" s="33">
+        <v>0</v>
+      </c>
+      <c r="L277" s="33">
+        <v>0</v>
+      </c>
+      <c r="M277" s="34">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
